--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2689.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2689.xlsx
@@ -354,7 +354,7 @@
         <v>2.418929636945261</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.333598753623638</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2689.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2689.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.1625419187557</v>
+        <v>0.9868761301040649</v>
       </c>
       <c r="B1">
-        <v>2.418929636945261</v>
+        <v>1.902388334274292</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.316630363464355</v>
       </c>
       <c r="D1">
-        <v>2.333598753623638</v>
+        <v>2.256963968276978</v>
       </c>
       <c r="E1">
-        <v>1.215151122938973</v>
+        <v>1.309836506843567</v>
       </c>
     </row>
   </sheetData>
